--- a/Score Leyes Trabajo.xlsx
+++ b/Score Leyes Trabajo.xlsx
@@ -596,10 +596,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">PROTECTING WOMEN FROM VIOLENCE SCORE </t>
-  </si>
-  <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>ScoreProtegerLey</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V5" sqref="V5"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1083,7 +1083,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P1" s="4"/>
     </row>
